--- a/AAII_Financials/Quarterly/ACHHY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACHHY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20240100</v>
+        <v>20882800</v>
       </c>
       <c r="E8" s="3">
-        <v>20742500</v>
+        <v>21401200</v>
       </c>
       <c r="F8" s="3">
-        <v>16817700</v>
+        <v>17351700</v>
       </c>
       <c r="G8" s="3">
-        <v>14181900</v>
+        <v>14632300</v>
       </c>
       <c r="H8" s="3">
-        <v>11707900</v>
+        <v>12079700</v>
       </c>
       <c r="I8" s="3">
-        <v>13251100</v>
+        <v>13671900</v>
       </c>
       <c r="J8" s="3">
-        <v>13226900</v>
+        <v>13646900</v>
       </c>
       <c r="K8" s="3">
         <v>13620300</v>
@@ -749,25 +749,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18250400</v>
+        <v>18829900</v>
       </c>
       <c r="E9" s="3">
-        <v>18863100</v>
+        <v>19462000</v>
       </c>
       <c r="F9" s="3">
-        <v>15110500</v>
+        <v>15590300</v>
       </c>
       <c r="G9" s="3">
-        <v>13149000</v>
+        <v>13566500</v>
       </c>
       <c r="H9" s="3">
-        <v>11026500</v>
+        <v>11376600</v>
       </c>
       <c r="I9" s="3">
-        <v>12392000</v>
+        <v>12785500</v>
       </c>
       <c r="J9" s="3">
-        <v>12395100</v>
+        <v>12788700</v>
       </c>
       <c r="K9" s="3">
         <v>12682700</v>
@@ -778,25 +778,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1989700</v>
+        <v>2052900</v>
       </c>
       <c r="E10" s="3">
-        <v>1879400</v>
+        <v>1939100</v>
       </c>
       <c r="F10" s="3">
-        <v>1707200</v>
+        <v>1761400</v>
       </c>
       <c r="G10" s="3">
-        <v>1033000</v>
+        <v>1065800</v>
       </c>
       <c r="H10" s="3">
-        <v>681500</v>
+        <v>703100</v>
       </c>
       <c r="I10" s="3">
-        <v>859100</v>
+        <v>886400</v>
       </c>
       <c r="J10" s="3">
-        <v>831800</v>
+        <v>858200</v>
       </c>
       <c r="K10" s="3">
         <v>937700</v>
@@ -820,25 +820,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>226300</v>
+        <v>233500</v>
       </c>
       <c r="E12" s="3">
-        <v>237100</v>
+        <v>244600</v>
       </c>
       <c r="F12" s="3">
-        <v>91700</v>
+        <v>94600</v>
       </c>
       <c r="G12" s="3">
-        <v>147800</v>
+        <v>152500</v>
       </c>
       <c r="H12" s="3">
-        <v>51800</v>
+        <v>53400</v>
       </c>
       <c r="I12" s="3">
-        <v>97400</v>
+        <v>100500</v>
       </c>
       <c r="J12" s="3">
-        <v>33600</v>
+        <v>34700</v>
       </c>
       <c r="K12" s="3">
         <v>68400</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>295800</v>
+        <v>305200</v>
       </c>
       <c r="E14" s="3">
-        <v>450300</v>
+        <v>464600</v>
       </c>
       <c r="F14" s="3">
-        <v>74100</v>
+        <v>76500</v>
       </c>
       <c r="G14" s="3">
-        <v>169000</v>
+        <v>174400</v>
       </c>
       <c r="H14" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="I14" s="3">
-        <v>-33700</v>
+        <v>-34800</v>
       </c>
       <c r="J14" s="3">
-        <v>-42600</v>
+        <v>-44000</v>
       </c>
       <c r="K14" s="3">
         <v>42000</v>
@@ -946,25 +946,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19079300</v>
+        <v>19685100</v>
       </c>
       <c r="E17" s="3">
-        <v>19922600</v>
+        <v>20555200</v>
       </c>
       <c r="F17" s="3">
-        <v>15767300</v>
+        <v>16267900</v>
       </c>
       <c r="G17" s="3">
-        <v>13674200</v>
+        <v>14108400</v>
       </c>
       <c r="H17" s="3">
-        <v>11372600</v>
+        <v>11733700</v>
       </c>
       <c r="I17" s="3">
-        <v>12886100</v>
+        <v>13295300</v>
       </c>
       <c r="J17" s="3">
-        <v>12692600</v>
+        <v>13095600</v>
       </c>
       <c r="K17" s="3">
         <v>13255500</v>
@@ -975,25 +975,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1160800</v>
+        <v>1197700</v>
       </c>
       <c r="E18" s="3">
-        <v>820000</v>
+        <v>846000</v>
       </c>
       <c r="F18" s="3">
-        <v>1050400</v>
+        <v>1083800</v>
       </c>
       <c r="G18" s="3">
-        <v>507700</v>
+        <v>523800</v>
       </c>
       <c r="H18" s="3">
-        <v>335300</v>
+        <v>346000</v>
       </c>
       <c r="I18" s="3">
-        <v>365000</v>
+        <v>376600</v>
       </c>
       <c r="J18" s="3">
-        <v>534300</v>
+        <v>551300</v>
       </c>
       <c r="K18" s="3">
         <v>364800</v>
@@ -1017,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>70000</v>
+        <v>72200</v>
       </c>
       <c r="E20" s="3">
-        <v>23900</v>
+        <v>24700</v>
       </c>
       <c r="F20" s="3">
-        <v>72300</v>
+        <v>74600</v>
       </c>
       <c r="G20" s="3">
-        <v>36500</v>
+        <v>37600</v>
       </c>
       <c r="H20" s="3">
-        <v>29900</v>
+        <v>30900</v>
       </c>
       <c r="I20" s="3">
-        <v>45900</v>
+        <v>47300</v>
       </c>
       <c r="J20" s="3">
-        <v>43600</v>
+        <v>45000</v>
       </c>
       <c r="K20" s="3">
         <v>38100</v>
@@ -1046,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1886900</v>
+        <v>1946800</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
@@ -1055,16 +1055,16 @@
         <v>11</v>
       </c>
       <c r="G21" s="3">
-        <v>1150600</v>
+        <v>1187200</v>
       </c>
       <c r="H21" s="3">
-        <v>929900</v>
+        <v>959400</v>
       </c>
       <c r="I21" s="3">
-        <v>1039000</v>
+        <v>1072000</v>
       </c>
       <c r="J21" s="3">
-        <v>1138800</v>
+        <v>1175000</v>
       </c>
       <c r="K21" s="3">
         <v>966000</v>
@@ -1075,25 +1075,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>262400</v>
+        <v>270800</v>
       </c>
       <c r="E22" s="3">
-        <v>266500</v>
+        <v>275000</v>
       </c>
       <c r="F22" s="3">
-        <v>279300</v>
+        <v>288100</v>
       </c>
       <c r="G22" s="3">
-        <v>294100</v>
+        <v>303400</v>
       </c>
       <c r="H22" s="3">
-        <v>310700</v>
+        <v>320500</v>
       </c>
       <c r="I22" s="3">
-        <v>336800</v>
+        <v>347500</v>
       </c>
       <c r="J22" s="3">
-        <v>357000</v>
+        <v>368300</v>
       </c>
       <c r="K22" s="3">
         <v>353000</v>
@@ -1104,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>968400</v>
+        <v>999100</v>
       </c>
       <c r="E23" s="3">
-        <v>577400</v>
+        <v>595700</v>
       </c>
       <c r="F23" s="3">
-        <v>843400</v>
+        <v>870200</v>
       </c>
       <c r="G23" s="3">
-        <v>250100</v>
+        <v>258100</v>
       </c>
       <c r="H23" s="3">
-        <v>54600</v>
+        <v>56300</v>
       </c>
       <c r="I23" s="3">
-        <v>74000</v>
+        <v>76400</v>
       </c>
       <c r="J23" s="3">
-        <v>220900</v>
+        <v>228000</v>
       </c>
       <c r="K23" s="3">
         <v>49900</v>
@@ -1133,25 +1133,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>140600</v>
+        <v>145100</v>
       </c>
       <c r="E24" s="3">
-        <v>160200</v>
+        <v>165200</v>
       </c>
       <c r="F24" s="3">
-        <v>173600</v>
+        <v>179100</v>
       </c>
       <c r="G24" s="3">
-        <v>59500</v>
+        <v>61400</v>
       </c>
       <c r="H24" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="I24" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="J24" s="3">
-        <v>57800</v>
+        <v>59600</v>
       </c>
       <c r="K24" s="3">
         <v>35000</v>
@@ -1191,25 +1191,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>827800</v>
+        <v>854100</v>
       </c>
       <c r="E26" s="3">
-        <v>417200</v>
+        <v>430500</v>
       </c>
       <c r="F26" s="3">
-        <v>669800</v>
+        <v>691100</v>
       </c>
       <c r="G26" s="3">
-        <v>190600</v>
+        <v>196700</v>
       </c>
       <c r="H26" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="I26" s="3">
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="J26" s="3">
-        <v>163200</v>
+        <v>168300</v>
       </c>
       <c r="K26" s="3">
         <v>14900</v>
@@ -1220,25 +1220,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>547800</v>
+        <v>565200</v>
       </c>
       <c r="E27" s="3">
-        <v>264400</v>
+        <v>272800</v>
       </c>
       <c r="F27" s="3">
-        <v>416100</v>
+        <v>429300</v>
       </c>
       <c r="G27" s="3">
-        <v>84200</v>
+        <v>86900</v>
       </c>
       <c r="H27" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="I27" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J27" s="3">
-        <v>83700</v>
+        <v>86400</v>
       </c>
       <c r="K27" s="3">
         <v>-26300</v>
@@ -1365,25 +1365,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-70000</v>
+        <v>-72200</v>
       </c>
       <c r="E32" s="3">
-        <v>-23900</v>
+        <v>-24700</v>
       </c>
       <c r="F32" s="3">
-        <v>-72300</v>
+        <v>-74600</v>
       </c>
       <c r="G32" s="3">
-        <v>-36500</v>
+        <v>-37600</v>
       </c>
       <c r="H32" s="3">
-        <v>-29900</v>
+        <v>-30900</v>
       </c>
       <c r="I32" s="3">
-        <v>-45900</v>
+        <v>-47300</v>
       </c>
       <c r="J32" s="3">
-        <v>-43600</v>
+        <v>-45000</v>
       </c>
       <c r="K32" s="3">
         <v>-38100</v>
@@ -1394,25 +1394,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>547800</v>
+        <v>565200</v>
       </c>
       <c r="E33" s="3">
-        <v>264400</v>
+        <v>272800</v>
       </c>
       <c r="F33" s="3">
-        <v>416100</v>
+        <v>429300</v>
       </c>
       <c r="G33" s="3">
-        <v>84200</v>
+        <v>86900</v>
       </c>
       <c r="H33" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="I33" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J33" s="3">
-        <v>83700</v>
+        <v>86400</v>
       </c>
       <c r="K33" s="3">
         <v>-26300</v>
@@ -1452,25 +1452,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>547800</v>
+        <v>565200</v>
       </c>
       <c r="E35" s="3">
-        <v>264400</v>
+        <v>272800</v>
       </c>
       <c r="F35" s="3">
-        <v>416100</v>
+        <v>429300</v>
       </c>
       <c r="G35" s="3">
-        <v>84200</v>
+        <v>86900</v>
       </c>
       <c r="H35" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="I35" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J35" s="3">
-        <v>83700</v>
+        <v>86400</v>
       </c>
       <c r="K35" s="3">
         <v>-26300</v>
@@ -1541,25 +1541,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2627100</v>
+        <v>2710500</v>
       </c>
       <c r="E41" s="3">
-        <v>2485200</v>
+        <v>2564100</v>
       </c>
       <c r="F41" s="3">
-        <v>874300</v>
+        <v>902000</v>
       </c>
       <c r="G41" s="3">
-        <v>1346300</v>
+        <v>1389000</v>
       </c>
       <c r="H41" s="3">
-        <v>1229200</v>
+        <v>1268200</v>
       </c>
       <c r="I41" s="3">
-        <v>1082800</v>
+        <v>1117200</v>
       </c>
       <c r="J41" s="3">
-        <v>1660500</v>
+        <v>1713200</v>
       </c>
       <c r="K41" s="3">
         <v>2663000</v>
@@ -1570,25 +1570,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>698700</v>
+        <v>720900</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>696000</v>
+        <v>718100</v>
       </c>
       <c r="G42" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H42" s="3">
-        <v>576800</v>
+        <v>595100</v>
       </c>
       <c r="I42" s="3">
-        <v>487600</v>
+        <v>503100</v>
       </c>
       <c r="J42" s="3">
-        <v>279500</v>
+        <v>288400</v>
       </c>
       <c r="K42" s="3">
         <v>2200</v>
@@ -1599,25 +1599,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>891200</v>
+        <v>919400</v>
       </c>
       <c r="E43" s="3">
-        <v>961200</v>
+        <v>991700</v>
       </c>
       <c r="F43" s="3">
-        <v>1736400</v>
+        <v>1791500</v>
       </c>
       <c r="G43" s="3">
-        <v>1296500</v>
+        <v>1337600</v>
       </c>
       <c r="H43" s="3">
-        <v>1351000</v>
+        <v>1393900</v>
       </c>
       <c r="I43" s="3">
-        <v>1032800</v>
+        <v>1065500</v>
       </c>
       <c r="J43" s="3">
-        <v>1314400</v>
+        <v>1356100</v>
       </c>
       <c r="K43" s="3">
         <v>1128100</v>
@@ -1628,25 +1628,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2605900</v>
+        <v>2688600</v>
       </c>
       <c r="E44" s="3">
-        <v>2600000</v>
+        <v>2682500</v>
       </c>
       <c r="F44" s="3">
-        <v>2715600</v>
+        <v>2801800</v>
       </c>
       <c r="G44" s="3">
-        <v>2764800</v>
+        <v>2852500</v>
       </c>
       <c r="H44" s="3">
-        <v>2578700</v>
+        <v>2660500</v>
       </c>
       <c r="I44" s="3">
-        <v>2716600</v>
+        <v>2802800</v>
       </c>
       <c r="J44" s="3">
-        <v>3103000</v>
+        <v>3201500</v>
       </c>
       <c r="K44" s="3">
         <v>2848000</v>
@@ -1657,25 +1657,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1192500</v>
+        <v>1230400</v>
       </c>
       <c r="E45" s="3">
-        <v>734700</v>
+        <v>758000</v>
       </c>
       <c r="F45" s="3">
-        <v>979200</v>
+        <v>1010300</v>
       </c>
       <c r="G45" s="3">
-        <v>1030700</v>
+        <v>1063400</v>
       </c>
       <c r="H45" s="3">
-        <v>1292900</v>
+        <v>1334000</v>
       </c>
       <c r="I45" s="3">
-        <v>1459500</v>
+        <v>1505800</v>
       </c>
       <c r="J45" s="3">
-        <v>1881400</v>
+        <v>1941100</v>
       </c>
       <c r="K45" s="3">
         <v>1557800</v>
@@ -1686,25 +1686,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8015300</v>
+        <v>8269800</v>
       </c>
       <c r="E46" s="3">
-        <v>6781000</v>
+        <v>6996300</v>
       </c>
       <c r="F46" s="3">
-        <v>7001400</v>
+        <v>7223700</v>
       </c>
       <c r="G46" s="3">
-        <v>6440600</v>
+        <v>6645100</v>
       </c>
       <c r="H46" s="3">
-        <v>7028500</v>
+        <v>7251700</v>
       </c>
       <c r="I46" s="3">
-        <v>6779200</v>
+        <v>6994500</v>
       </c>
       <c r="J46" s="3">
-        <v>8238700</v>
+        <v>8500300</v>
       </c>
       <c r="K46" s="3">
         <v>8199100</v>
@@ -1715,25 +1715,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1860800</v>
+        <v>1919900</v>
       </c>
       <c r="E47" s="3">
-        <v>1841200</v>
+        <v>1899700</v>
       </c>
       <c r="F47" s="3">
-        <v>1870300</v>
+        <v>1929700</v>
       </c>
       <c r="G47" s="3">
-        <v>1959200</v>
+        <v>2021400</v>
       </c>
       <c r="H47" s="3">
-        <v>2114300</v>
+        <v>2181400</v>
       </c>
       <c r="I47" s="3">
-        <v>2107100</v>
+        <v>2174000</v>
       </c>
       <c r="J47" s="3">
-        <v>1672200</v>
+        <v>1725300</v>
       </c>
       <c r="K47" s="3">
         <v>1598900</v>
@@ -1744,25 +1744,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14912300</v>
+        <v>15385800</v>
       </c>
       <c r="E48" s="3">
-        <v>31378200</v>
+        <v>32374600</v>
       </c>
       <c r="F48" s="3">
-        <v>15704100</v>
+        <v>16202800</v>
       </c>
       <c r="G48" s="3">
-        <v>16231000</v>
+        <v>16746400</v>
       </c>
       <c r="H48" s="3">
-        <v>16479700</v>
+        <v>17003000</v>
       </c>
       <c r="I48" s="3">
-        <v>16815700</v>
+        <v>17349700</v>
       </c>
       <c r="J48" s="3">
-        <v>16403400</v>
+        <v>16924200</v>
       </c>
       <c r="K48" s="3">
         <v>14950800</v>
@@ -1773,25 +1773,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1780400</v>
+        <v>1837000</v>
       </c>
       <c r="E49" s="3">
-        <v>3615500</v>
+        <v>3730400</v>
       </c>
       <c r="F49" s="3">
-        <v>1822600</v>
+        <v>1880500</v>
       </c>
       <c r="G49" s="3">
-        <v>1872000</v>
+        <v>1931400</v>
       </c>
       <c r="H49" s="3">
-        <v>1897900</v>
+        <v>1958200</v>
       </c>
       <c r="I49" s="3">
-        <v>1916000</v>
+        <v>1976900</v>
       </c>
       <c r="J49" s="3">
-        <v>1871400</v>
+        <v>1930800</v>
       </c>
       <c r="K49" s="3">
         <v>2392300</v>
@@ -1860,25 +1860,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>548200</v>
+        <v>565700</v>
       </c>
       <c r="E52" s="3">
-        <v>537500</v>
+        <v>554500</v>
       </c>
       <c r="F52" s="3">
-        <v>622000</v>
+        <v>641800</v>
       </c>
       <c r="G52" s="3">
-        <v>646900</v>
+        <v>667400</v>
       </c>
       <c r="H52" s="3">
-        <v>698100</v>
+        <v>720300</v>
       </c>
       <c r="I52" s="3">
-        <v>658600</v>
+        <v>679600</v>
       </c>
       <c r="J52" s="3">
-        <v>782800</v>
+        <v>807600</v>
       </c>
       <c r="K52" s="3">
         <v>833200</v>
@@ -1918,25 +1918,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27117100</v>
+        <v>27978100</v>
       </c>
       <c r="E54" s="3">
-        <v>26786900</v>
+        <v>27637400</v>
       </c>
       <c r="F54" s="3">
-        <v>27020400</v>
+        <v>27878400</v>
       </c>
       <c r="G54" s="3">
-        <v>27149700</v>
+        <v>28011800</v>
       </c>
       <c r="H54" s="3">
-        <v>28218500</v>
+        <v>29114500</v>
       </c>
       <c r="I54" s="3">
-        <v>28276700</v>
+        <v>29174600</v>
       </c>
       <c r="J54" s="3">
-        <v>28968500</v>
+        <v>29888300</v>
       </c>
       <c r="K54" s="3">
         <v>27974300</v>
@@ -1973,25 +1973,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2802300</v>
+        <v>2891300</v>
       </c>
       <c r="E57" s="3">
-        <v>2158400</v>
+        <v>2226900</v>
       </c>
       <c r="F57" s="3">
-        <v>2001700</v>
+        <v>2065300</v>
       </c>
       <c r="G57" s="3">
-        <v>2149900</v>
+        <v>2218100</v>
       </c>
       <c r="H57" s="3">
-        <v>1887800</v>
+        <v>1947700</v>
       </c>
       <c r="I57" s="3">
-        <v>1755100</v>
+        <v>1810900</v>
       </c>
       <c r="J57" s="3">
-        <v>1901300</v>
+        <v>1961700</v>
       </c>
       <c r="K57" s="3">
         <v>1950100</v>
@@ -2002,25 +2002,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3062700</v>
+        <v>3159900</v>
       </c>
       <c r="E58" s="3">
-        <v>3411300</v>
+        <v>3519600</v>
       </c>
       <c r="F58" s="3">
-        <v>4402600</v>
+        <v>4542400</v>
       </c>
       <c r="G58" s="3">
-        <v>4831300</v>
+        <v>4984700</v>
       </c>
       <c r="H58" s="3">
-        <v>5734100</v>
+        <v>5916200</v>
       </c>
       <c r="I58" s="3">
-        <v>6075400</v>
+        <v>6268300</v>
       </c>
       <c r="J58" s="3">
-        <v>6935200</v>
+        <v>7155400</v>
       </c>
       <c r="K58" s="3">
         <v>6621100</v>
@@ -2031,25 +2031,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1637700</v>
+        <v>1689800</v>
       </c>
       <c r="E59" s="3">
-        <v>1694000</v>
+        <v>1747700</v>
       </c>
       <c r="F59" s="3">
-        <v>1786500</v>
+        <v>1843200</v>
       </c>
       <c r="G59" s="3">
-        <v>1737400</v>
+        <v>1792600</v>
       </c>
       <c r="H59" s="3">
-        <v>1814000</v>
+        <v>1871600</v>
       </c>
       <c r="I59" s="3">
-        <v>1991600</v>
+        <v>2054900</v>
       </c>
       <c r="J59" s="3">
-        <v>1870700</v>
+        <v>1930100</v>
       </c>
       <c r="K59" s="3">
         <v>1846100</v>
@@ -2060,25 +2060,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7502700</v>
+        <v>7740900</v>
       </c>
       <c r="E60" s="3">
-        <v>7263600</v>
+        <v>7494200</v>
       </c>
       <c r="F60" s="3">
-        <v>8190700</v>
+        <v>8450800</v>
       </c>
       <c r="G60" s="3">
-        <v>8718500</v>
+        <v>8995400</v>
       </c>
       <c r="H60" s="3">
-        <v>9435900</v>
+        <v>9735500</v>
       </c>
       <c r="I60" s="3">
-        <v>9633100</v>
+        <v>9938900</v>
       </c>
       <c r="J60" s="3">
-        <v>10707200</v>
+        <v>11047200</v>
       </c>
       <c r="K60" s="3">
         <v>10417300</v>
@@ -2089,25 +2089,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8327500</v>
+        <v>8591900</v>
       </c>
       <c r="E61" s="3">
-        <v>8922100</v>
+        <v>9205400</v>
       </c>
       <c r="F61" s="3">
-        <v>7774200</v>
+        <v>8021100</v>
       </c>
       <c r="G61" s="3">
-        <v>8006500</v>
+        <v>8260700</v>
       </c>
       <c r="H61" s="3">
-        <v>8368700</v>
+        <v>8634500</v>
       </c>
       <c r="I61" s="3">
-        <v>8246700</v>
+        <v>8508600</v>
       </c>
       <c r="J61" s="3">
-        <v>8028200</v>
+        <v>8283100</v>
       </c>
       <c r="K61" s="3">
         <v>7545700</v>
@@ -2118,25 +2118,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>443000</v>
+        <v>457000</v>
       </c>
       <c r="E62" s="3">
-        <v>461700</v>
+        <v>476400</v>
       </c>
       <c r="F62" s="3">
-        <v>483000</v>
+        <v>498300</v>
       </c>
       <c r="G62" s="3">
-        <v>499000</v>
+        <v>514800</v>
       </c>
       <c r="H62" s="3">
-        <v>526700</v>
+        <v>543500</v>
       </c>
       <c r="I62" s="3">
-        <v>547500</v>
+        <v>564900</v>
       </c>
       <c r="J62" s="3">
-        <v>565600</v>
+        <v>583500</v>
       </c>
       <c r="K62" s="3">
         <v>591700</v>
@@ -2234,25 +2234,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18693400</v>
+        <v>19287000</v>
       </c>
       <c r="E66" s="3">
-        <v>18807600</v>
+        <v>19404800</v>
       </c>
       <c r="F66" s="3">
-        <v>19019200</v>
+        <v>19623100</v>
       </c>
       <c r="G66" s="3">
-        <v>19570300</v>
+        <v>20191800</v>
       </c>
       <c r="H66" s="3">
-        <v>20605900</v>
+        <v>21260200</v>
       </c>
       <c r="I66" s="3">
-        <v>20666400</v>
+        <v>21322600</v>
       </c>
       <c r="J66" s="3">
-        <v>21568900</v>
+        <v>22253800</v>
       </c>
       <c r="K66" s="3">
         <v>20678100</v>
@@ -2392,25 +2392,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1910700</v>
+        <v>1971400</v>
       </c>
       <c r="E72" s="3">
-        <v>2372700</v>
+        <v>2448100</v>
       </c>
       <c r="F72" s="3">
-        <v>1200300</v>
+        <v>1238400</v>
       </c>
       <c r="G72" s="3">
-        <v>728500</v>
+        <v>751700</v>
       </c>
       <c r="H72" s="3">
-        <v>692900</v>
+        <v>714900</v>
       </c>
       <c r="I72" s="3">
-        <v>683200</v>
+        <v>704900</v>
       </c>
       <c r="J72" s="3">
-        <v>680800</v>
+        <v>702500</v>
       </c>
       <c r="K72" s="3">
         <v>2066800</v>
@@ -2508,25 +2508,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8423700</v>
+        <v>8691100</v>
       </c>
       <c r="E76" s="3">
-        <v>7979200</v>
+        <v>8232600</v>
       </c>
       <c r="F76" s="3">
-        <v>8001300</v>
+        <v>8255300</v>
       </c>
       <c r="G76" s="3">
-        <v>7579300</v>
+        <v>7820000</v>
       </c>
       <c r="H76" s="3">
-        <v>7612600</v>
+        <v>7854300</v>
       </c>
       <c r="I76" s="3">
-        <v>7610300</v>
+        <v>7852000</v>
       </c>
       <c r="J76" s="3">
-        <v>7399600</v>
+        <v>7634600</v>
       </c>
       <c r="K76" s="3">
         <v>7296200</v>
@@ -2600,25 +2600,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>547800</v>
+        <v>565200</v>
       </c>
       <c r="E81" s="3">
-        <v>264400</v>
+        <v>272800</v>
       </c>
       <c r="F81" s="3">
-        <v>416100</v>
+        <v>429300</v>
       </c>
       <c r="G81" s="3">
-        <v>84200</v>
+        <v>86900</v>
       </c>
       <c r="H81" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="I81" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J81" s="3">
-        <v>83700</v>
+        <v>86400</v>
       </c>
       <c r="K81" s="3">
         <v>-26300</v>
@@ -2651,16 +2651,16 @@
         <v>11</v>
       </c>
       <c r="G83" s="3">
-        <v>606400</v>
+        <v>625700</v>
       </c>
       <c r="H83" s="3">
-        <v>564700</v>
+        <v>582600</v>
       </c>
       <c r="I83" s="3">
-        <v>611200</v>
+        <v>630600</v>
       </c>
       <c r="J83" s="3">
-        <v>577900</v>
+        <v>596200</v>
       </c>
       <c r="K83" s="3">
         <v>562500</v>
@@ -2816,25 +2816,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2085600</v>
+        <v>2151800</v>
       </c>
       <c r="E89" s="3">
-        <v>2609600</v>
+        <v>2692400</v>
       </c>
       <c r="F89" s="3">
-        <v>1320100</v>
+        <v>1362000</v>
       </c>
       <c r="G89" s="3">
-        <v>1239400</v>
+        <v>1278700</v>
       </c>
       <c r="H89" s="3">
-        <v>835700</v>
+        <v>862300</v>
       </c>
       <c r="I89" s="3">
-        <v>1316400</v>
+        <v>1358200</v>
       </c>
       <c r="J89" s="3">
-        <v>422400</v>
+        <v>435800</v>
       </c>
       <c r="K89" s="3">
         <v>867400</v>
@@ -2858,22 +2858,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-205800</v>
+        <v>-212300</v>
       </c>
       <c r="E91" s="3">
-        <v>109500</v>
+        <v>112900</v>
       </c>
       <c r="F91" s="3">
-        <v>-109800</v>
+        <v>-113300</v>
       </c>
       <c r="G91" s="3">
-        <v>-272200</v>
+        <v>-280900</v>
       </c>
       <c r="H91" s="3">
-        <v>-429200</v>
+        <v>-442800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1237300</v>
+        <v>-1276600</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
@@ -2945,25 +2945,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-825300</v>
+        <v>-851500</v>
       </c>
       <c r="E94" s="3">
-        <v>681000</v>
+        <v>702700</v>
       </c>
       <c r="F94" s="3">
-        <v>-784600</v>
+        <v>-809600</v>
       </c>
       <c r="G94" s="3">
-        <v>618500</v>
+        <v>638200</v>
       </c>
       <c r="H94" s="3">
-        <v>-349500</v>
+        <v>-360600</v>
       </c>
       <c r="I94" s="3">
-        <v>-958900</v>
+        <v>-989300</v>
       </c>
       <c r="J94" s="3">
-        <v>-905300</v>
+        <v>-934100</v>
       </c>
       <c r="K94" s="3">
         <v>-666700</v>
@@ -3103,25 +3103,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1124700</v>
+        <v>-1160400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1692700</v>
+        <v>-1746500</v>
       </c>
       <c r="F100" s="3">
-        <v>-879500</v>
+        <v>-907400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1810900</v>
+        <v>-1868400</v>
       </c>
       <c r="H100" s="3">
-        <v>-384800</v>
+        <v>-397000</v>
       </c>
       <c r="I100" s="3">
-        <v>-943500</v>
+        <v>-973400</v>
       </c>
       <c r="J100" s="3">
-        <v>-514500</v>
+        <v>-530800</v>
       </c>
       <c r="K100" s="3">
         <v>-973400</v>
@@ -3132,25 +3132,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="F101" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G101" s="3">
-        <v>-15300</v>
+        <v>-15800</v>
       </c>
       <c r="H101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I101" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="J101" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="K101" s="3">
         <v>4700</v>
@@ -3161,25 +3161,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>141900</v>
+        <v>146400</v>
       </c>
       <c r="E102" s="3">
-        <v>1603000</v>
+        <v>1653900</v>
       </c>
       <c r="F102" s="3">
-        <v>-338800</v>
+        <v>-349600</v>
       </c>
       <c r="G102" s="3">
-        <v>31700</v>
+        <v>32700</v>
       </c>
       <c r="H102" s="3">
-        <v>104500</v>
+        <v>107800</v>
       </c>
       <c r="I102" s="3">
-        <v>-578900</v>
+        <v>-597200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1002000</v>
+        <v>-1033800</v>
       </c>
       <c r="K102" s="3">
         <v>-756000</v>

--- a/AAII_Financials/Quarterly/ACHHY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACHHY_QTR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20882800</v>
+        <v>20669000</v>
       </c>
       <c r="E8" s="3">
-        <v>21401200</v>
+        <v>25324000</v>
       </c>
       <c r="F8" s="3">
-        <v>17351700</v>
+        <v>17174100</v>
       </c>
       <c r="G8" s="3">
-        <v>14632300</v>
+        <v>14482500</v>
       </c>
       <c r="H8" s="3">
-        <v>12079700</v>
+        <v>11956100</v>
       </c>
       <c r="I8" s="3">
-        <v>13671900</v>
+        <v>13531900</v>
       </c>
       <c r="J8" s="3">
-        <v>13646900</v>
+        <v>13507200</v>
       </c>
       <c r="K8" s="3">
         <v>13620300</v>
@@ -749,25 +749,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18829900</v>
+        <v>18637100</v>
       </c>
       <c r="E9" s="3">
-        <v>19462000</v>
+        <v>22233600</v>
       </c>
       <c r="F9" s="3">
-        <v>15590300</v>
+        <v>15430700</v>
       </c>
       <c r="G9" s="3">
-        <v>13566500</v>
+        <v>13427600</v>
       </c>
       <c r="H9" s="3">
-        <v>11376600</v>
+        <v>11260100</v>
       </c>
       <c r="I9" s="3">
-        <v>12785500</v>
+        <v>12654600</v>
       </c>
       <c r="J9" s="3">
-        <v>12788700</v>
+        <v>12657800</v>
       </c>
       <c r="K9" s="3">
         <v>12682700</v>
@@ -778,25 +778,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2052900</v>
+        <v>2031900</v>
       </c>
       <c r="E10" s="3">
-        <v>1939100</v>
+        <v>3090300</v>
       </c>
       <c r="F10" s="3">
-        <v>1761400</v>
+        <v>1743300</v>
       </c>
       <c r="G10" s="3">
-        <v>1065800</v>
+        <v>1054900</v>
       </c>
       <c r="H10" s="3">
-        <v>703100</v>
+        <v>695900</v>
       </c>
       <c r="I10" s="3">
-        <v>886400</v>
+        <v>877300</v>
       </c>
       <c r="J10" s="3">
-        <v>858200</v>
+        <v>849400</v>
       </c>
       <c r="K10" s="3">
         <v>937700</v>
@@ -820,25 +820,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>233500</v>
+        <v>231100</v>
       </c>
       <c r="E12" s="3">
-        <v>244600</v>
+        <v>250000</v>
       </c>
       <c r="F12" s="3">
-        <v>94600</v>
+        <v>93600</v>
       </c>
       <c r="G12" s="3">
-        <v>152500</v>
+        <v>151000</v>
       </c>
       <c r="H12" s="3">
-        <v>53400</v>
+        <v>52900</v>
       </c>
       <c r="I12" s="3">
-        <v>100500</v>
+        <v>99400</v>
       </c>
       <c r="J12" s="3">
-        <v>34700</v>
+        <v>34300</v>
       </c>
       <c r="K12" s="3">
         <v>68400</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>305200</v>
+        <v>302100</v>
       </c>
       <c r="E14" s="3">
-        <v>464600</v>
+        <v>707600</v>
       </c>
       <c r="F14" s="3">
-        <v>76500</v>
+        <v>75700</v>
       </c>
       <c r="G14" s="3">
-        <v>174400</v>
+        <v>172600</v>
       </c>
       <c r="H14" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="I14" s="3">
-        <v>-34800</v>
+        <v>-34400</v>
       </c>
       <c r="J14" s="3">
-        <v>-44000</v>
+        <v>-43500</v>
       </c>
       <c r="K14" s="3">
         <v>42000</v>
@@ -946,25 +946,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19685100</v>
+        <v>19483600</v>
       </c>
       <c r="E17" s="3">
-        <v>20555200</v>
+        <v>23739100</v>
       </c>
       <c r="F17" s="3">
-        <v>16267900</v>
+        <v>16101400</v>
       </c>
       <c r="G17" s="3">
-        <v>14108400</v>
+        <v>13964000</v>
       </c>
       <c r="H17" s="3">
-        <v>11733700</v>
+        <v>11613600</v>
       </c>
       <c r="I17" s="3">
-        <v>13295300</v>
+        <v>13159200</v>
       </c>
       <c r="J17" s="3">
-        <v>13095600</v>
+        <v>12961600</v>
       </c>
       <c r="K17" s="3">
         <v>13255500</v>
@@ -975,25 +975,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1197700</v>
+        <v>1185400</v>
       </c>
       <c r="E18" s="3">
-        <v>846000</v>
+        <v>1584800</v>
       </c>
       <c r="F18" s="3">
-        <v>1083800</v>
+        <v>1072700</v>
       </c>
       <c r="G18" s="3">
-        <v>523800</v>
+        <v>518500</v>
       </c>
       <c r="H18" s="3">
-        <v>346000</v>
+        <v>342400</v>
       </c>
       <c r="I18" s="3">
-        <v>376600</v>
+        <v>372700</v>
       </c>
       <c r="J18" s="3">
-        <v>551300</v>
+        <v>545600</v>
       </c>
       <c r="K18" s="3">
         <v>364800</v>
@@ -1017,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>72200</v>
+        <v>71500</v>
       </c>
       <c r="E20" s="3">
-        <v>24700</v>
+        <v>-153300</v>
       </c>
       <c r="F20" s="3">
-        <v>74600</v>
+        <v>73800</v>
       </c>
       <c r="G20" s="3">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="H20" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="I20" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="J20" s="3">
-        <v>45000</v>
+        <v>44500</v>
       </c>
       <c r="K20" s="3">
         <v>38100</v>
@@ -1046,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1946800</v>
+        <v>1926900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
@@ -1055,16 +1055,16 @@
         <v>11</v>
       </c>
       <c r="G21" s="3">
-        <v>1187200</v>
+        <v>1175000</v>
       </c>
       <c r="H21" s="3">
-        <v>959400</v>
+        <v>949600</v>
       </c>
       <c r="I21" s="3">
-        <v>1072000</v>
+        <v>1061000</v>
       </c>
       <c r="J21" s="3">
-        <v>1175000</v>
+        <v>1163000</v>
       </c>
       <c r="K21" s="3">
         <v>966000</v>
@@ -1075,25 +1075,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>270800</v>
+        <v>268000</v>
       </c>
       <c r="E22" s="3">
-        <v>275000</v>
+        <v>272200</v>
       </c>
       <c r="F22" s="3">
-        <v>288100</v>
+        <v>285200</v>
       </c>
       <c r="G22" s="3">
-        <v>303400</v>
+        <v>300300</v>
       </c>
       <c r="H22" s="3">
-        <v>320500</v>
+        <v>317200</v>
       </c>
       <c r="I22" s="3">
-        <v>347500</v>
+        <v>344000</v>
       </c>
       <c r="J22" s="3">
-        <v>368300</v>
+        <v>364500</v>
       </c>
       <c r="K22" s="3">
         <v>353000</v>
@@ -1104,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>999100</v>
+        <v>988900</v>
       </c>
       <c r="E23" s="3">
-        <v>595700</v>
+        <v>1159300</v>
       </c>
       <c r="F23" s="3">
-        <v>870200</v>
+        <v>861300</v>
       </c>
       <c r="G23" s="3">
-        <v>258100</v>
+        <v>255400</v>
       </c>
       <c r="H23" s="3">
-        <v>56300</v>
+        <v>55800</v>
       </c>
       <c r="I23" s="3">
-        <v>76400</v>
+        <v>75600</v>
       </c>
       <c r="J23" s="3">
-        <v>228000</v>
+        <v>225600</v>
       </c>
       <c r="K23" s="3">
         <v>49900</v>
@@ -1133,25 +1133,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>145100</v>
+        <v>143600</v>
       </c>
       <c r="E24" s="3">
-        <v>165200</v>
+        <v>231800</v>
       </c>
       <c r="F24" s="3">
-        <v>179100</v>
+        <v>177300</v>
       </c>
       <c r="G24" s="3">
-        <v>61400</v>
+        <v>60800</v>
       </c>
       <c r="H24" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="I24" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="J24" s="3">
-        <v>59600</v>
+        <v>59000</v>
       </c>
       <c r="K24" s="3">
         <v>35000</v>
@@ -1191,25 +1191,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>854100</v>
+        <v>845300</v>
       </c>
       <c r="E26" s="3">
-        <v>430500</v>
+        <v>927600</v>
       </c>
       <c r="F26" s="3">
-        <v>691100</v>
+        <v>684000</v>
       </c>
       <c r="G26" s="3">
-        <v>196700</v>
+        <v>194700</v>
       </c>
       <c r="H26" s="3">
-        <v>33000</v>
+        <v>32700</v>
       </c>
       <c r="I26" s="3">
-        <v>45700</v>
+        <v>45300</v>
       </c>
       <c r="J26" s="3">
-        <v>168300</v>
+        <v>166600</v>
       </c>
       <c r="K26" s="3">
         <v>14900</v>
@@ -1220,25 +1220,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>565200</v>
+        <v>559400</v>
       </c>
       <c r="E27" s="3">
-        <v>272800</v>
+        <v>366700</v>
       </c>
       <c r="F27" s="3">
-        <v>429300</v>
+        <v>424900</v>
       </c>
       <c r="G27" s="3">
-        <v>86900</v>
+        <v>86000</v>
       </c>
       <c r="H27" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="I27" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J27" s="3">
-        <v>86400</v>
+        <v>85500</v>
       </c>
       <c r="K27" s="3">
         <v>-26300</v>
@@ -1365,25 +1365,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72200</v>
+        <v>-71500</v>
       </c>
       <c r="E32" s="3">
-        <v>-24700</v>
+        <v>153300</v>
       </c>
       <c r="F32" s="3">
-        <v>-74600</v>
+        <v>-73800</v>
       </c>
       <c r="G32" s="3">
-        <v>-37600</v>
+        <v>-37300</v>
       </c>
       <c r="H32" s="3">
-        <v>-30900</v>
+        <v>-30600</v>
       </c>
       <c r="I32" s="3">
-        <v>-47300</v>
+        <v>-46900</v>
       </c>
       <c r="J32" s="3">
-        <v>-45000</v>
+        <v>-44500</v>
       </c>
       <c r="K32" s="3">
         <v>-38100</v>
@@ -1394,25 +1394,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>565200</v>
+        <v>559400</v>
       </c>
       <c r="E33" s="3">
-        <v>272800</v>
+        <v>366700</v>
       </c>
       <c r="F33" s="3">
-        <v>429300</v>
+        <v>424900</v>
       </c>
       <c r="G33" s="3">
-        <v>86900</v>
+        <v>86000</v>
       </c>
       <c r="H33" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="I33" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J33" s="3">
-        <v>86400</v>
+        <v>85500</v>
       </c>
       <c r="K33" s="3">
         <v>-26300</v>
@@ -1452,25 +1452,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>565200</v>
+        <v>559400</v>
       </c>
       <c r="E35" s="3">
-        <v>272800</v>
+        <v>366700</v>
       </c>
       <c r="F35" s="3">
-        <v>429300</v>
+        <v>424900</v>
       </c>
       <c r="G35" s="3">
-        <v>86900</v>
+        <v>86000</v>
       </c>
       <c r="H35" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="I35" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J35" s="3">
-        <v>86400</v>
+        <v>85500</v>
       </c>
       <c r="K35" s="3">
         <v>-26300</v>
@@ -1541,25 +1541,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2710500</v>
+        <v>2682700</v>
       </c>
       <c r="E41" s="3">
-        <v>2564100</v>
+        <v>2537800</v>
       </c>
       <c r="F41" s="3">
-        <v>902000</v>
+        <v>892800</v>
       </c>
       <c r="G41" s="3">
-        <v>1389000</v>
+        <v>1374800</v>
       </c>
       <c r="H41" s="3">
-        <v>1268200</v>
+        <v>1255200</v>
       </c>
       <c r="I41" s="3">
-        <v>1117200</v>
+        <v>1105800</v>
       </c>
       <c r="J41" s="3">
-        <v>1713200</v>
+        <v>1695700</v>
       </c>
       <c r="K41" s="3">
         <v>2663000</v>
@@ -1570,25 +1570,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>720900</v>
+        <v>713500</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>718100</v>
+        <v>710800</v>
       </c>
       <c r="G42" s="3">
         <v>2500</v>
       </c>
       <c r="H42" s="3">
-        <v>595100</v>
+        <v>589000</v>
       </c>
       <c r="I42" s="3">
-        <v>503100</v>
+        <v>498000</v>
       </c>
       <c r="J42" s="3">
-        <v>288400</v>
+        <v>285400</v>
       </c>
       <c r="K42" s="3">
         <v>2200</v>
@@ -1599,25 +1599,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>919400</v>
+        <v>910000</v>
       </c>
       <c r="E43" s="3">
-        <v>991700</v>
+        <v>981500</v>
       </c>
       <c r="F43" s="3">
-        <v>1791500</v>
+        <v>1773200</v>
       </c>
       <c r="G43" s="3">
-        <v>1337600</v>
+        <v>1323900</v>
       </c>
       <c r="H43" s="3">
-        <v>1393900</v>
+        <v>1379600</v>
       </c>
       <c r="I43" s="3">
-        <v>1065500</v>
+        <v>1054600</v>
       </c>
       <c r="J43" s="3">
-        <v>1356100</v>
+        <v>1342200</v>
       </c>
       <c r="K43" s="3">
         <v>1128100</v>
@@ -1628,25 +1628,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2688600</v>
+        <v>2661100</v>
       </c>
       <c r="E44" s="3">
-        <v>2682500</v>
+        <v>2655100</v>
       </c>
       <c r="F44" s="3">
-        <v>2801800</v>
+        <v>2773100</v>
       </c>
       <c r="G44" s="3">
-        <v>2852500</v>
+        <v>2823400</v>
       </c>
       <c r="H44" s="3">
-        <v>2660500</v>
+        <v>2633300</v>
       </c>
       <c r="I44" s="3">
-        <v>2802800</v>
+        <v>2774100</v>
       </c>
       <c r="J44" s="3">
-        <v>3201500</v>
+        <v>3168800</v>
       </c>
       <c r="K44" s="3">
         <v>2848000</v>
@@ -1657,25 +1657,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1230400</v>
+        <v>1217800</v>
       </c>
       <c r="E45" s="3">
-        <v>758000</v>
+        <v>750300</v>
       </c>
       <c r="F45" s="3">
-        <v>1010300</v>
+        <v>999900</v>
       </c>
       <c r="G45" s="3">
-        <v>1063400</v>
+        <v>1052500</v>
       </c>
       <c r="H45" s="3">
-        <v>1334000</v>
+        <v>1320300</v>
       </c>
       <c r="I45" s="3">
-        <v>1505800</v>
+        <v>1490400</v>
       </c>
       <c r="J45" s="3">
-        <v>1941100</v>
+        <v>1921200</v>
       </c>
       <c r="K45" s="3">
         <v>1557800</v>
@@ -1686,25 +1686,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8269800</v>
+        <v>8185100</v>
       </c>
       <c r="E46" s="3">
-        <v>6996300</v>
+        <v>6924700</v>
       </c>
       <c r="F46" s="3">
-        <v>7223700</v>
+        <v>7149800</v>
       </c>
       <c r="G46" s="3">
-        <v>6645100</v>
+        <v>6577100</v>
       </c>
       <c r="H46" s="3">
-        <v>7251700</v>
+        <v>7177500</v>
       </c>
       <c r="I46" s="3">
-        <v>6994500</v>
+        <v>6922900</v>
       </c>
       <c r="J46" s="3">
-        <v>8500300</v>
+        <v>8413300</v>
       </c>
       <c r="K46" s="3">
         <v>8199100</v>
@@ -1715,25 +1715,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1919900</v>
+        <v>1900300</v>
       </c>
       <c r="E47" s="3">
-        <v>1899700</v>
+        <v>1880200</v>
       </c>
       <c r="F47" s="3">
-        <v>1929700</v>
+        <v>1909900</v>
       </c>
       <c r="G47" s="3">
-        <v>2021400</v>
+        <v>2000700</v>
       </c>
       <c r="H47" s="3">
-        <v>2181400</v>
+        <v>2159100</v>
       </c>
       <c r="I47" s="3">
-        <v>2174000</v>
+        <v>2151800</v>
       </c>
       <c r="J47" s="3">
-        <v>1725300</v>
+        <v>1707700</v>
       </c>
       <c r="K47" s="3">
         <v>1598900</v>
@@ -1744,25 +1744,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15385800</v>
+        <v>15228400</v>
       </c>
       <c r="E48" s="3">
-        <v>32374600</v>
+        <v>32043200</v>
       </c>
       <c r="F48" s="3">
-        <v>16202800</v>
+        <v>16036900</v>
       </c>
       <c r="G48" s="3">
-        <v>16746400</v>
+        <v>16575000</v>
       </c>
       <c r="H48" s="3">
-        <v>17003000</v>
+        <v>16829000</v>
       </c>
       <c r="I48" s="3">
-        <v>17349700</v>
+        <v>17172100</v>
       </c>
       <c r="J48" s="3">
-        <v>16924200</v>
+        <v>16751000</v>
       </c>
       <c r="K48" s="3">
         <v>14950800</v>
@@ -1773,25 +1773,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1837000</v>
+        <v>1818200</v>
       </c>
       <c r="E49" s="3">
-        <v>3730400</v>
+        <v>3692200</v>
       </c>
       <c r="F49" s="3">
-        <v>1880500</v>
+        <v>1861200</v>
       </c>
       <c r="G49" s="3">
-        <v>1931400</v>
+        <v>1911700</v>
       </c>
       <c r="H49" s="3">
-        <v>1958200</v>
+        <v>1938200</v>
       </c>
       <c r="I49" s="3">
-        <v>1976900</v>
+        <v>1956600</v>
       </c>
       <c r="J49" s="3">
-        <v>1930800</v>
+        <v>1911100</v>
       </c>
       <c r="K49" s="3">
         <v>2392300</v>
@@ -1860,25 +1860,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>565700</v>
+        <v>559900</v>
       </c>
       <c r="E52" s="3">
-        <v>554500</v>
+        <v>548900</v>
       </c>
       <c r="F52" s="3">
-        <v>641800</v>
+        <v>635200</v>
       </c>
       <c r="G52" s="3">
-        <v>667400</v>
+        <v>660600</v>
       </c>
       <c r="H52" s="3">
-        <v>720300</v>
+        <v>712900</v>
       </c>
       <c r="I52" s="3">
-        <v>679600</v>
+        <v>672600</v>
       </c>
       <c r="J52" s="3">
-        <v>807600</v>
+        <v>799400</v>
       </c>
       <c r="K52" s="3">
         <v>833200</v>
@@ -1918,25 +1918,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27978100</v>
+        <v>27691800</v>
       </c>
       <c r="E54" s="3">
-        <v>27637400</v>
+        <v>27354500</v>
       </c>
       <c r="F54" s="3">
-        <v>27878400</v>
+        <v>27593100</v>
       </c>
       <c r="G54" s="3">
-        <v>28011800</v>
+        <v>27725100</v>
       </c>
       <c r="H54" s="3">
-        <v>29114500</v>
+        <v>28816500</v>
       </c>
       <c r="I54" s="3">
-        <v>29174600</v>
+        <v>28876000</v>
       </c>
       <c r="J54" s="3">
-        <v>29888300</v>
+        <v>29582400</v>
       </c>
       <c r="K54" s="3">
         <v>27974300</v>
@@ -1973,25 +1973,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2891300</v>
+        <v>2861700</v>
       </c>
       <c r="E57" s="3">
-        <v>2226900</v>
+        <v>2204100</v>
       </c>
       <c r="F57" s="3">
-        <v>2065300</v>
+        <v>2044100</v>
       </c>
       <c r="G57" s="3">
-        <v>2218100</v>
+        <v>2195400</v>
       </c>
       <c r="H57" s="3">
-        <v>1947700</v>
+        <v>1927800</v>
       </c>
       <c r="I57" s="3">
-        <v>1810900</v>
+        <v>1792300</v>
       </c>
       <c r="J57" s="3">
-        <v>1961700</v>
+        <v>1941600</v>
       </c>
       <c r="K57" s="3">
         <v>1950100</v>
@@ -2002,25 +2002,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3159900</v>
+        <v>3127600</v>
       </c>
       <c r="E58" s="3">
-        <v>3519600</v>
+        <v>3483500</v>
       </c>
       <c r="F58" s="3">
-        <v>4542400</v>
+        <v>4495900</v>
       </c>
       <c r="G58" s="3">
-        <v>4984700</v>
+        <v>4933600</v>
       </c>
       <c r="H58" s="3">
-        <v>5916200</v>
+        <v>5855600</v>
       </c>
       <c r="I58" s="3">
-        <v>6268300</v>
+        <v>6204200</v>
       </c>
       <c r="J58" s="3">
-        <v>7155400</v>
+        <v>7082200</v>
       </c>
       <c r="K58" s="3">
         <v>6621100</v>
@@ -2031,25 +2031,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1689800</v>
+        <v>1672500</v>
       </c>
       <c r="E59" s="3">
-        <v>1747700</v>
+        <v>1729900</v>
       </c>
       <c r="F59" s="3">
-        <v>1843200</v>
+        <v>1824300</v>
       </c>
       <c r="G59" s="3">
-        <v>1792600</v>
+        <v>1774200</v>
       </c>
       <c r="H59" s="3">
-        <v>1871600</v>
+        <v>1852400</v>
       </c>
       <c r="I59" s="3">
-        <v>2054900</v>
+        <v>2033800</v>
       </c>
       <c r="J59" s="3">
-        <v>1930100</v>
+        <v>1910300</v>
       </c>
       <c r="K59" s="3">
         <v>1846100</v>
@@ -2060,25 +2060,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7740900</v>
+        <v>7661700</v>
       </c>
       <c r="E60" s="3">
-        <v>7494200</v>
+        <v>7417500</v>
       </c>
       <c r="F60" s="3">
-        <v>8450800</v>
+        <v>8364300</v>
       </c>
       <c r="G60" s="3">
-        <v>8995400</v>
+        <v>8903300</v>
       </c>
       <c r="H60" s="3">
-        <v>9735500</v>
+        <v>9635900</v>
       </c>
       <c r="I60" s="3">
-        <v>9938900</v>
+        <v>9837200</v>
       </c>
       <c r="J60" s="3">
-        <v>11047200</v>
+        <v>10934100</v>
       </c>
       <c r="K60" s="3">
         <v>10417300</v>
@@ -2089,25 +2089,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8591900</v>
+        <v>8504000</v>
       </c>
       <c r="E61" s="3">
-        <v>9205400</v>
+        <v>9111200</v>
       </c>
       <c r="F61" s="3">
-        <v>8021100</v>
+        <v>7939000</v>
       </c>
       <c r="G61" s="3">
-        <v>8260700</v>
+        <v>8176200</v>
       </c>
       <c r="H61" s="3">
-        <v>8634500</v>
+        <v>8546100</v>
       </c>
       <c r="I61" s="3">
-        <v>8508600</v>
+        <v>8421500</v>
       </c>
       <c r="J61" s="3">
-        <v>8283100</v>
+        <v>8198300</v>
       </c>
       <c r="K61" s="3">
         <v>7545700</v>
@@ -2118,25 +2118,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>457000</v>
+        <v>452400</v>
       </c>
       <c r="E62" s="3">
-        <v>476400</v>
+        <v>471500</v>
       </c>
       <c r="F62" s="3">
-        <v>498300</v>
+        <v>493200</v>
       </c>
       <c r="G62" s="3">
-        <v>514800</v>
+        <v>509600</v>
       </c>
       <c r="H62" s="3">
-        <v>543500</v>
+        <v>537900</v>
       </c>
       <c r="I62" s="3">
-        <v>564900</v>
+        <v>559100</v>
       </c>
       <c r="J62" s="3">
-        <v>583500</v>
+        <v>577500</v>
       </c>
       <c r="K62" s="3">
         <v>591700</v>
@@ -2234,25 +2234,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19287000</v>
+        <v>19089600</v>
       </c>
       <c r="E66" s="3">
-        <v>19404800</v>
+        <v>19206200</v>
       </c>
       <c r="F66" s="3">
-        <v>19623100</v>
+        <v>19422200</v>
       </c>
       <c r="G66" s="3">
-        <v>20191800</v>
+        <v>19985100</v>
       </c>
       <c r="H66" s="3">
-        <v>21260200</v>
+        <v>21042600</v>
       </c>
       <c r="I66" s="3">
-        <v>21322600</v>
+        <v>21104400</v>
       </c>
       <c r="J66" s="3">
-        <v>22253800</v>
+        <v>22026000</v>
       </c>
       <c r="K66" s="3">
         <v>20678100</v>
@@ -2392,25 +2392,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1971400</v>
+        <v>1951200</v>
       </c>
       <c r="E72" s="3">
-        <v>2448100</v>
+        <v>2423000</v>
       </c>
       <c r="F72" s="3">
-        <v>1238400</v>
+        <v>1225800</v>
       </c>
       <c r="G72" s="3">
-        <v>751700</v>
+        <v>744000</v>
       </c>
       <c r="H72" s="3">
-        <v>714900</v>
+        <v>707600</v>
       </c>
       <c r="I72" s="3">
-        <v>704900</v>
+        <v>697700</v>
       </c>
       <c r="J72" s="3">
-        <v>702500</v>
+        <v>695300</v>
       </c>
       <c r="K72" s="3">
         <v>2066800</v>
@@ -2508,25 +2508,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8691100</v>
+        <v>8602200</v>
       </c>
       <c r="E76" s="3">
-        <v>8232600</v>
+        <v>8148300</v>
       </c>
       <c r="F76" s="3">
-        <v>8255300</v>
+        <v>8170800</v>
       </c>
       <c r="G76" s="3">
-        <v>7820000</v>
+        <v>7740000</v>
       </c>
       <c r="H76" s="3">
-        <v>7854300</v>
+        <v>7773900</v>
       </c>
       <c r="I76" s="3">
-        <v>7852000</v>
+        <v>7771600</v>
       </c>
       <c r="J76" s="3">
-        <v>7634600</v>
+        <v>7556400</v>
       </c>
       <c r="K76" s="3">
         <v>7296200</v>
@@ -2600,25 +2600,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>565200</v>
+        <v>559400</v>
       </c>
       <c r="E81" s="3">
-        <v>272800</v>
+        <v>366700</v>
       </c>
       <c r="F81" s="3">
-        <v>429300</v>
+        <v>424900</v>
       </c>
       <c r="G81" s="3">
-        <v>86900</v>
+        <v>86000</v>
       </c>
       <c r="H81" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="I81" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J81" s="3">
-        <v>86400</v>
+        <v>85500</v>
       </c>
       <c r="K81" s="3">
         <v>-26300</v>
@@ -2651,16 +2651,16 @@
         <v>11</v>
       </c>
       <c r="G83" s="3">
-        <v>625700</v>
+        <v>619300</v>
       </c>
       <c r="H83" s="3">
-        <v>582600</v>
+        <v>576600</v>
       </c>
       <c r="I83" s="3">
-        <v>630600</v>
+        <v>624200</v>
       </c>
       <c r="J83" s="3">
-        <v>596200</v>
+        <v>590100</v>
       </c>
       <c r="K83" s="3">
         <v>562500</v>
@@ -2816,25 +2816,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2151800</v>
+        <v>2129800</v>
       </c>
       <c r="E89" s="3">
-        <v>2692400</v>
+        <v>2664900</v>
       </c>
       <c r="F89" s="3">
-        <v>1362000</v>
+        <v>1348100</v>
       </c>
       <c r="G89" s="3">
-        <v>1278700</v>
+        <v>1265700</v>
       </c>
       <c r="H89" s="3">
-        <v>862300</v>
+        <v>853400</v>
       </c>
       <c r="I89" s="3">
-        <v>1358200</v>
+        <v>1344300</v>
       </c>
       <c r="J89" s="3">
-        <v>435800</v>
+        <v>431400</v>
       </c>
       <c r="K89" s="3">
         <v>867400</v>
@@ -2858,25 +2858,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-212300</v>
+        <v>-1478400</v>
       </c>
       <c r="E91" s="3">
-        <v>112900</v>
+        <v>-1252900</v>
       </c>
       <c r="F91" s="3">
-        <v>-113300</v>
+        <v>-789000</v>
       </c>
       <c r="G91" s="3">
-        <v>-280900</v>
+        <v>-1955700</v>
       </c>
       <c r="H91" s="3">
-        <v>-442800</v>
+        <v>-3083200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1276600</v>
+        <v>-4549800</v>
       </c>
       <c r="J91" s="3">
-        <v>-400</v>
+        <v>-4501000</v>
       </c>
       <c r="K91" s="3">
         <v>-476200</v>
@@ -2945,25 +2945,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-851500</v>
+        <v>-842700</v>
       </c>
       <c r="E94" s="3">
-        <v>702700</v>
+        <v>695500</v>
       </c>
       <c r="F94" s="3">
-        <v>-809600</v>
+        <v>-801300</v>
       </c>
       <c r="G94" s="3">
-        <v>638200</v>
+        <v>631600</v>
       </c>
       <c r="H94" s="3">
-        <v>-360600</v>
+        <v>-356900</v>
       </c>
       <c r="I94" s="3">
-        <v>-989300</v>
+        <v>-979200</v>
       </c>
       <c r="J94" s="3">
-        <v>-934100</v>
+        <v>-924500</v>
       </c>
       <c r="K94" s="3">
         <v>-666700</v>
@@ -3103,25 +3103,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1160400</v>
+        <v>-1148500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1746500</v>
+        <v>-1728600</v>
       </c>
       <c r="F100" s="3">
-        <v>-907400</v>
+        <v>-898100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1868400</v>
+        <v>-1849200</v>
       </c>
       <c r="H100" s="3">
-        <v>-397000</v>
+        <v>-392900</v>
       </c>
       <c r="I100" s="3">
-        <v>-973400</v>
+        <v>-963500</v>
       </c>
       <c r="J100" s="3">
-        <v>-530800</v>
+        <v>-525400</v>
       </c>
       <c r="K100" s="3">
         <v>-973400</v>
@@ -3135,19 +3135,19 @@
         <v>6400</v>
       </c>
       <c r="E101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F101" s="3">
         <v>5300</v>
       </c>
-      <c r="F101" s="3">
-        <v>5400</v>
-      </c>
       <c r="G101" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="H101" s="3">
         <v>3100</v>
       </c>
       <c r="I101" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="J101" s="3">
         <v>-4500</v>
@@ -3161,25 +3161,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>146400</v>
+        <v>144900</v>
       </c>
       <c r="E102" s="3">
-        <v>1653900</v>
+        <v>1636900</v>
       </c>
       <c r="F102" s="3">
-        <v>-349600</v>
+        <v>-346000</v>
       </c>
       <c r="G102" s="3">
-        <v>32700</v>
+        <v>32400</v>
       </c>
       <c r="H102" s="3">
-        <v>107800</v>
+        <v>106700</v>
       </c>
       <c r="I102" s="3">
-        <v>-597200</v>
+        <v>-591100</v>
       </c>
       <c r="J102" s="3">
-        <v>-1033800</v>
+        <v>-1023300</v>
       </c>
       <c r="K102" s="3">
         <v>-756000</v>
